--- a/TowerDefenceGame/data/stage/01/wave.xlsx
+++ b/TowerDefenceGame/data/stage/01/wave.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74DE960-351A-4A93-81F3-B1977E7A90D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A185896-02C1-46A1-9088-E99F5717219C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
   <si>
     <t>#No</t>
     <phoneticPr fontId="1"/>
@@ -50,11 +50,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Armoured</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#HitPoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#Power</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#Speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#Reward</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Armored</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -380,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,10 +419,22 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -412,11 +444,24 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>IF($B2="Normal",$A2+9,IF($B2="Fast",$A2+7,IF($B2="Armored",$A2+13,-1)))*IF($H2="Yes",10,1)</f>
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -426,11 +471,24 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G31" si="0">IF($B3="Normal",$A3+9,IF($B3="Fast",$A3+7,IF($B3="Armored",$A3+13,-1)))*IF($H3="Yes",10,1)</f>
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -440,11 +498,24 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -452,13 +523,26 @@
         <v>6</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -468,11 +552,24 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -482,11 +579,24 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -496,25 +606,51 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -524,11 +660,24 @@
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -538,8 +687,561 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>1.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="H11" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1.7</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>3.5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>120</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>3.5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>140</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>3.5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>160</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2.5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>110</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2.5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1600</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>1.5</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/TowerDefenceGame/data/stage/01/wave.xlsx
+++ b/TowerDefenceGame/data/stage/01/wave.xlsx
@@ -1,112 +1,413 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A408EC0-FA13-4CCF-ABA3-5E46F7F581D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meden\Source\Repos\TowerDefenceGameInCpp\TowerDefenceGame\data\stage\01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A1C3BB-CB5E-4AAF-BC6F-8A9926297BBC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6012"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="wave" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="13">
   <si>
     <t>#Type</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#Number</t>
+  </si>
+  <si>
+    <t>#HitPoint</t>
+  </si>
+  <si>
+    <t>#Power</t>
+  </si>
+  <si>
+    <t>#Speed</t>
+  </si>
+  <si>
+    <t>#Reward</t>
   </si>
   <si>
     <t>#Boss</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#No(NotToBeUsed)</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Armored</t>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#Number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fast</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#HitPoint</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#Power</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#Speed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#Reward</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Armored</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#No(NotToBeUsed)</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック Light"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -114,15 +415,290 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -138,7 +714,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -154,7 +730,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -166,7 +742,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -183,7 +759,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -213,12 +789,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -248,6 +841,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,44 +1009,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -445,25 +1055,24 @@
         <v>15</v>
       </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
       <c r="F2">
-        <f>IF($A2="Normal",$H2+9,IF($A2="Fast",$H2+7,IF($A2="Armored",$H2+13,-1)))*IF($G2="Yes",10,1)</f>
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -472,25 +1081,24 @@
         <v>15</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
-        <f>IF($A3="Normal",$H3+9,IF($A3="Fast",$H3+7,IF($A3="Armored",$H3+13,-1)))*IF($G3="Yes",10,1)</f>
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -499,25 +1107,24 @@
         <v>20</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
-        <f>IF($A4="Normal",$H4+9,IF($A4="Fast",$H4+7,IF($A4="Armored",$H4+13,-1)))*IF($G4="Yes",10,1)</f>
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -526,25 +1133,24 @@
         <v>10</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
       <c r="F5">
-        <f>IF($A5="Normal",$H5+9,IF($A5="Fast",$H5+7,IF($A5="Armored",$H5+13,-1)))*IF($G5="Yes",10,1)</f>
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -553,25 +1159,24 @@
         <v>20</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
       <c r="F6">
-        <f>IF($A6="Normal",$H6+9,IF($A6="Fast",$H6+7,IF($A6="Armored",$H6+13,-1)))*IF($G6="Yes",10,1)</f>
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -580,25 +1185,24 @@
         <v>25</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
       <c r="F7">
-        <f>IF($A7="Normal",$H7+9,IF($A7="Fast",$H7+7,IF($A7="Armored",$H7+13,-1)))*IF($G7="Yes",10,1)</f>
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -607,25 +1211,24 @@
         <v>25</v>
       </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
       <c r="F8">
-        <f>IF($A8="Normal",$H8+9,IF($A8="Fast",$H8+7,IF($A8="Armored",$H8+13,-1)))*IF($G8="Yes",10,1)</f>
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -634,25 +1237,24 @@
         <v>40</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <f>IF($A9="Normal",$H9+9,IF($A9="Fast",$H9+7,IF($A9="Armored",$H9+13,-1)))*IF($G9="Yes",10,1)</f>
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -661,25 +1263,24 @@
         <v>30</v>
       </c>
       <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
       <c r="F10">
-        <f>IF($A10="Normal",$H10+9,IF($A10="Fast",$H10+7,IF($A10="Armored",$H10+13,-1)))*IF($G10="Yes",10,1)</f>
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -688,25 +1289,24 @@
         <v>100</v>
       </c>
       <c r="D11">
+        <v>1.5</v>
+      </c>
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>1.5</v>
-      </c>
       <c r="F11">
-        <f>IF($A11="Normal",$H11+9,IF($A11="Fast",$H11+7,IF($A11="Armored",$H11+13,-1)))*IF($G11="Yes",10,1)</f>
         <v>190</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -715,25 +1315,24 @@
         <v>35</v>
       </c>
       <c r="D12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="F12">
-        <f>IF($A12="Normal",$H12+9,IF($A12="Fast",$H12+7,IF($A12="Armored",$H12+13,-1)))*IF($G12="Yes",10,1)</f>
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -742,25 +1341,24 @@
         <v>40</v>
       </c>
       <c r="D13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="F13">
-        <f>IF($A13="Normal",$H13+9,IF($A13="Fast",$H13+7,IF($A13="Armored",$H13+13,-1)))*IF($G13="Yes",10,1)</f>
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -769,25 +1367,24 @@
         <v>30</v>
       </c>
       <c r="D14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="F14">
-        <f>IF($A14="Normal",$H14+9,IF($A14="Fast",$H14+7,IF($A14="Armored",$H14+13,-1)))*IF($G14="Yes",10,1)</f>
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -796,25 +1393,24 @@
         <v>40</v>
       </c>
       <c r="D15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="F15">
-        <f>IF($A15="Normal",$H15+9,IF($A15="Fast",$H15+7,IF($A15="Armored",$H15+13,-1)))*IF($G15="Yes",10,1)</f>
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -823,25 +1419,24 @@
         <v>80</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="E16">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <f>IF($A16="Normal",$H16+9,IF($A16="Fast",$H16+7,IF($A16="Armored",$H16+13,-1)))*IF($G16="Yes",10,1)</f>
         <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -850,25 +1445,24 @@
         <v>50</v>
       </c>
       <c r="D17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="F17">
-        <f>IF($A17="Normal",$H17+9,IF($A17="Fast",$H17+7,IF($A17="Armored",$H17+13,-1)))*IF($G17="Yes",10,1)</f>
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -877,25 +1471,24 @@
         <v>45</v>
       </c>
       <c r="D18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="F18">
-        <f>IF($A18="Normal",$H18+9,IF($A18="Fast",$H18+7,IF($A18="Armored",$H18+13,-1)))*IF($G18="Yes",10,1)</f>
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -904,25 +1497,24 @@
         <v>60</v>
       </c>
       <c r="D19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="F19">
-        <f>IF($A19="Normal",$H19+9,IF($A19="Fast",$H19+7,IF($A19="Armored",$H19+13,-1)))*IF($G19="Yes",10,1)</f>
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -931,25 +1523,24 @@
         <v>65</v>
       </c>
       <c r="D20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="F20">
-        <f>IF($A20="Normal",$H20+9,IF($A20="Fast",$H20+7,IF($A20="Armored",$H20+13,-1)))*IF($G20="Yes",10,1)</f>
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -958,25 +1549,24 @@
         <v>80</v>
       </c>
       <c r="D21">
+        <v>3.5</v>
+      </c>
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="E21">
-        <v>3.5</v>
-      </c>
       <c r="F21">
-        <f>IF($A21="Normal",$H21+9,IF($A21="Fast",$H21+7,IF($A21="Armored",$H21+13,-1)))*IF($G21="Yes",10,1)</f>
         <v>270</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -985,25 +1575,24 @@
         <v>80</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <f>IF($A22="Normal",$H22+9,IF($A22="Fast",$H22+7,IF($A22="Armored",$H22+13,-1)))*IF($G22="Yes",10,1)</f>
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1018,19 +1607,18 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <f>IF($A23="Normal",$H23+9,IF($A23="Fast",$H23+7,IF($A23="Armored",$H23+13,-1)))*IF($G23="Yes",10,1)</f>
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -1039,25 +1627,24 @@
         <v>70</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E24">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <f>IF($A24="Normal",$H24+9,IF($A24="Fast",$H24+7,IF($A24="Armored",$H24+13,-1)))*IF($G24="Yes",10,1)</f>
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1072,19 +1659,18 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <f>IF($A25="Normal",$H25+9,IF($A25="Fast",$H25+7,IF($A25="Armored",$H25+13,-1)))*IF($G25="Yes",10,1)</f>
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1093,25 +1679,24 @@
         <v>80</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E26">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <f>IF($A26="Normal",$H26+9,IF($A26="Fast",$H26+7,IF($A26="Armored",$H26+13,-1)))*IF($G26="Yes",10,1)</f>
         <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -1126,19 +1711,18 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <f>IF($A27="Normal",$H27+9,IF($A27="Fast",$H27+7,IF($A27="Armored",$H27+13,-1)))*IF($G27="Yes",10,1)</f>
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -1147,25 +1731,24 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E28">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <f>IF($A28="Normal",$H28+9,IF($A28="Fast",$H28+7,IF($A28="Armored",$H28+13,-1)))*IF($G28="Yes",10,1)</f>
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -1174,25 +1757,24 @@
         <v>110</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E29">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <f>IF($A29="Normal",$H29+9,IF($A29="Fast",$H29+7,IF($A29="Armored",$H29+13,-1)))*IF($G29="Yes",10,1)</f>
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -1207,19 +1789,18 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <f>IF($A30="Normal",$H30+9,IF($A30="Fast",$H30+7,IF($A30="Armored",$H30+13,-1)))*IF($G30="Yes",10,1)</f>
         <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1228,25 +1809,23 @@
         <v>1600</v>
       </c>
       <c r="D31">
+        <v>1.5</v>
+      </c>
+      <c r="E31">
         <v>20</v>
       </c>
-      <c r="E31">
-        <v>1.5</v>
-      </c>
       <c r="F31">
-        <f>IF($A31="Normal",$H31+9,IF($A31="Fast",$H31+7,IF($A31="Armored",$H31+13,-1)))*IF($G31="Yes",10,1)</f>
         <v>430</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>